--- a/python/two/night SD t1=6 t2=3 δ=0.8.xlsx
+++ b/python/two/night SD t1=6 t2=3 δ=0.8.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.96e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.92e-06</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.04e+00</t>
+          <t>3.13e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0699</t>
+          <t>478.0</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.22e+00</t>
+          <t>5.18e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>1480.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.82e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.0462</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.22e+00</t>
+          <t>5.22e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>1500.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.85e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>0.0618</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.95e-01</t>
+          <t>9.91e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000313</t>
+          <t>323.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.16e-01</t>
+          <t>6.59e-04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.114</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.37e-10</t>
+          <t>4.76e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.61e-06</t>
+          <t>4.51e-06</t>
         </is>
       </c>
     </row>
